--- a/biology/Botanique/Trädgårdsföreningen/Trädgårdsföreningen.xlsx
+++ b/biology/Botanique/Trädgårdsföreningen/Trädgårdsföreningen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tr%C3%A4dg%C3%A5rdsf%C3%B6reningen</t>
+          <t>Trädgårdsföreningen</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Trädgårdsföreningen (le jardin de la Société d'Horticulture) est un parc au centre de Göteborg, juste à côté du canal et tout près de Kungsportsavenyn. Au milieu du parc, on trouve de grandes serres, avec des plantes tropicales. Dans une de ces serres, le Fjärilshuset (« la serre des papillons »), il y a des papillons tropicaux.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tr%C3%A4dg%C3%A5rdsf%C3%B6reningen</t>
+          <t>Trädgårdsföreningen</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Herbert Jacobsson</t>
         </is>
